--- a/01_data/02_prod/SN_April 2021.xlsx
+++ b/01_data/02_prod/SN_April 2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\LAIT Modernisation 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtufts\Documents\no_net_work\Open source\local-authority-interactive-tool\01_data\02_prod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{124ADE80-2045-43EF-AA29-6A34AF540370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DC6C4B3-1FB4-48D2-B16F-F653407A8DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3AED49FA-47EC-457E-9C5A-1E49E6CBC2EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{3AED49FA-47EC-457E-9C5A-1E49E6CBC2EA}"/>
   </bookViews>
   <sheets>
     <sheet name="LA SN Groups" sheetId="1" r:id="rId1"/>
@@ -425,9 +425,6 @@
     <t>Dorset</t>
   </si>
   <si>
-    <t>Bournemouth, Christchurch &amp; Poole</t>
-  </si>
-  <si>
     <t>Durham</t>
   </si>
   <si>
@@ -627,6 +624,9 @@
   </si>
   <si>
     <t>Northamptonshire</t>
+  </si>
+  <si>
+    <t>Bournemouth, Christchurch and Poole</t>
   </si>
 </sst>
 </file>
@@ -1035,8 +1035,8 @@
   </sheetPr>
   <dimension ref="A1:Z164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8658,7 +8658,7 @@
         <v>839</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="C96" s="3">
         <v>839</v>
@@ -8735,7 +8735,7 @@
         <v>840</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C97" s="3">
         <v>840</v>
@@ -8812,7 +8812,7 @@
         <v>841</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C98" s="4">
         <v>841</v>
@@ -8890,7 +8890,7 @@
         <v>845</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C99" s="4">
         <v>845</v>
@@ -8968,7 +8968,7 @@
         <v>846</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C100" s="4">
         <v>846</v>
@@ -9048,7 +9048,7 @@
         <v>850</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C101" s="4">
         <v>850</v>
@@ -9128,7 +9128,7 @@
         <v>851</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C102" s="4">
         <v>851</v>
@@ -9208,7 +9208,7 @@
         <v>852</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103" s="4">
         <v>852</v>
@@ -9288,7 +9288,7 @@
         <v>855</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C104" s="4">
         <v>855</v>
@@ -9368,7 +9368,7 @@
         <v>856</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C105" s="4">
         <v>856</v>
@@ -9448,7 +9448,7 @@
         <v>857</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C106" s="4">
         <v>857</v>
@@ -9528,7 +9528,7 @@
         <v>860</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C107" s="4">
         <v>860</v>
@@ -9608,7 +9608,7 @@
         <v>861</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C108" s="4">
         <v>861</v>
@@ -9688,7 +9688,7 @@
         <v>865</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C109" s="4">
         <v>865</v>
@@ -9768,7 +9768,7 @@
         <v>866</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C110" s="4">
         <v>866</v>
@@ -9848,7 +9848,7 @@
         <v>867</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C111" s="4">
         <v>867</v>
@@ -9928,7 +9928,7 @@
         <v>868</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C112" s="4">
         <v>868</v>
@@ -10008,7 +10008,7 @@
         <v>869</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C113" s="4">
         <v>869</v>
@@ -10088,7 +10088,7 @@
         <v>870</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C114" s="4">
         <v>870</v>
@@ -10168,7 +10168,7 @@
         <v>871</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C115" s="4">
         <v>871</v>
@@ -10248,7 +10248,7 @@
         <v>872</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C116" s="4">
         <v>872</v>
@@ -10328,7 +10328,7 @@
         <v>873</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C117" s="4">
         <v>873</v>
@@ -10408,7 +10408,7 @@
         <v>874</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C118" s="4">
         <v>874</v>
@@ -10488,7 +10488,7 @@
         <v>876</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C119" s="4">
         <v>876</v>
@@ -10568,7 +10568,7 @@
         <v>877</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C120" s="4">
         <v>877</v>
@@ -10648,7 +10648,7 @@
         <v>878</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C121" s="4">
         <v>878</v>
@@ -10728,7 +10728,7 @@
         <v>879</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C122" s="4">
         <v>879</v>
@@ -10808,7 +10808,7 @@
         <v>880</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C123" s="4">
         <v>880</v>
@@ -10888,7 +10888,7 @@
         <v>881</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C124" s="4">
         <v>881</v>
@@ -10968,7 +10968,7 @@
         <v>882</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C125" s="4">
         <v>882</v>
@@ -11048,7 +11048,7 @@
         <v>883</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C126" s="4">
         <v>883</v>
@@ -11128,7 +11128,7 @@
         <v>884</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C127" s="4">
         <v>884</v>
@@ -11208,7 +11208,7 @@
         <v>885</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C128" s="4">
         <v>885</v>
@@ -11288,7 +11288,7 @@
         <v>886</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C129" s="4">
         <v>886</v>
@@ -11368,7 +11368,7 @@
         <v>887</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C130" s="4">
         <v>887</v>
@@ -11448,7 +11448,7 @@
         <v>888</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C131" s="4">
         <v>888</v>
@@ -11528,7 +11528,7 @@
         <v>889</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C132" s="4">
         <v>889</v>
@@ -11608,7 +11608,7 @@
         <v>890</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C133" s="4">
         <v>890</v>
@@ -11688,7 +11688,7 @@
         <v>891</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C134" s="4">
         <v>891</v>
@@ -11768,7 +11768,7 @@
         <v>892</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C135" s="4">
         <v>892</v>
@@ -11848,7 +11848,7 @@
         <v>893</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C136" s="4">
         <v>893</v>
@@ -11928,7 +11928,7 @@
         <v>894</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C137" s="4">
         <v>894</v>
@@ -12008,7 +12008,7 @@
         <v>895</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C138" s="4">
         <v>895</v>
@@ -12088,7 +12088,7 @@
         <v>896</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C139" s="4">
         <v>896</v>
@@ -12168,7 +12168,7 @@
         <v>908</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C140" s="4">
         <v>908</v>
@@ -12248,7 +12248,7 @@
         <v>909</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C141" s="4">
         <v>909</v>
@@ -12326,7 +12326,7 @@
         <v>916</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C142" s="4">
         <v>916</v>
@@ -12404,7 +12404,7 @@
         <v>919</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C143" s="4">
         <v>919</v>
@@ -12484,7 +12484,7 @@
         <v>921</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C144" s="4">
         <v>921</v>
@@ -12564,7 +12564,7 @@
         <v>925</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C145" s="4">
         <v>925</v>
@@ -12644,7 +12644,7 @@
         <v>926</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C146" s="4">
         <v>926</v>
@@ -12724,7 +12724,7 @@
         <v>929</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C147" s="4">
         <v>929</v>
@@ -12804,7 +12804,7 @@
         <v>931</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C148" s="4">
         <v>931</v>
@@ -12884,7 +12884,7 @@
         <v>933</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C149" s="4">
         <v>933</v>
@@ -12964,7 +12964,7 @@
         <v>935</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C150" s="4">
         <v>935</v>
@@ -13044,7 +13044,7 @@
         <v>936</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C151" s="4">
         <v>936</v>
@@ -13124,7 +13124,7 @@
         <v>937</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C152" s="4">
         <v>937</v>
@@ -13204,7 +13204,7 @@
         <v>938</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C153" s="4">
         <v>938</v>
@@ -13284,7 +13284,7 @@
         <v>940</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C154" s="3">
         <v>940</v>
@@ -13361,7 +13361,7 @@
         <v>941</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C155" s="3">
         <v>941</v>
@@ -13438,7 +13438,7 @@
         <v>942</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C156" s="7">
         <v>942</v>
@@ -13450,64 +13450,64 @@
         <v>70</v>
       </c>
       <c r="F156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y156" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13515,7 +13515,7 @@
         <v>943</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C157" s="7">
         <v>943</v>
@@ -13527,69 +13527,69 @@
         <v>70</v>
       </c>
       <c r="F157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="L157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="M157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="N157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="O157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="S157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="T157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="U157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="V157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="W157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y157" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B159" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="161" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -13597,7 +13597,7 @@
         <v>835</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C161" s="4">
         <v>835</v>
@@ -13677,7 +13677,7 @@
         <v>836</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C162" s="4">
         <v>836</v>
@@ -13757,7 +13757,7 @@
         <v>837</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C163" s="4">
         <v>837</v>
@@ -13837,7 +13837,7 @@
         <v>928</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C164" s="4">
         <v>928</v>
